--- a/ORANGE_CRM/Orange/DriverFile/TestSet.xlsx
+++ b/ORANGE_CRM/Orange/DriverFile/TestSet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704DE991-74D8-4B8E-B0A3-D796CFBF684B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478EF65E-6166-4C77-9A58-892B33BB2AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Run</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>User is login into the application using Login As Different User</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -459,13 +462,13 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50.08984375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="33.08984375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="75" style="13" customWidth="1"/>
     <col min="3" max="3" width="32.7265625" style="14" customWidth="1"/>
     <col min="4" max="4" width="36.54296875" style="14" customWidth="1"/>
     <col min="5" max="5" width="24.453125" customWidth="1"/>
@@ -502,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="11"/>

--- a/ORANGE_CRM/Orange/DriverFile/TestSet.xlsx
+++ b/ORANGE_CRM/Orange/DriverFile/TestSet.xlsx
@@ -1,52 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478EF65E-6166-4C77-9A58-892B33BB2AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18600" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="TestSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
-    <t>Run</t>
+    <t>TestCaseId</t>
   </si>
   <si>
     <t>TestCaseDescription</t>
   </si>
   <si>
-    <t>TestCaseId</t>
+    <t>Run</t>
   </si>
   <si>
-    <t>Panier Batch run 10 Mins</t>
+    <t>TC001_Orange_CRM_LoginWithvalidCredentials</t>
+  </si>
+  <si>
+    <t>User is loging into the application with valid username and password</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>User is loging into the application with valid username and password</t>
+    <t>TC002_Orange_CRM_LoginWithInvalidCredentials</t>
   </si>
   <si>
     <t>User is loging into the application with invalid username and password</t>
   </si>
   <si>
-    <t>TC002_Orange_CRM_LoginWithInvalidCredentials</t>
-  </si>
-  <si>
-    <t>TC001_Orange_CRM_LoginWithvalidCredentials</t>
+    <t>No</t>
   </si>
   <si>
     <t>TC003_Orange_CRM_LoginAsDifferentUser</t>
@@ -55,19 +49,25 @@
     <t>User is login into the application using Login As Different User</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Panier Batch run 10 Mins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,11 +75,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +248,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -115,82 +445,368 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,7 +855,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -274,7 +890,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -448,237 +1064,227 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="50.08984375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="32.7265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.0909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.7272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5454545454545" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="19.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="6.72727272727273" customWidth="1"/>
+    <col min="8" max="8" width="14.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="7.54545454545455" customWidth="1"/>
+    <col min="10" max="10" width="34.8181818181818" customWidth="1"/>
+    <col min="11" max="11" width="16.5454545454545" customWidth="1"/>
+    <col min="12" max="12" width="18.1818181818182" customWidth="1"/>
+    <col min="13" max="13" width="15.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="14"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="14"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="14"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="14"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="14"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="14"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C32" s="3"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ORANGE_CRM/Orange/DriverFile/TestSet.xlsx
+++ b/ORANGE_CRM/Orange/DriverFile/TestSet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6920"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="TestSet" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,13 @@
     <t>User is loging into the application with invalid username and password</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>TC003_Orange_CRM_LoginAsDifferentUser</t>
   </si>
   <si>
     <t>User is login into the application using Login As Different User</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Panier Batch run 10 Mins</t>
@@ -58,9 +58,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -80,7 +80,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +170,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -109,115 +200,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,19 +250,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,163 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,30 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,6 +483,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,13 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,151 +558,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1131,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11"/>
